--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596508.531773634</v>
+        <v>1598832.203587503</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5762458.827729664</v>
+        <v>5762458.827729663</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
         <v>53.51252900994975</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>47.13383555196375</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>40.25778981025229</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,31 +858,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.170977004479174</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="E5" t="n">
         <v>193.4600505471182</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>201.1281434150936</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>60.27622829416089</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,70 +1059,70 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>156.7701852745342</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>94.41066626107992</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,13 +1736,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>74.21245223256827</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.7755410381886</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1892,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.97702676147813</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.13484214871499</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,55 +2098,55 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.01742621531817</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.84103413332343</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2330,61 +2332,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>62.35079002715849</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>77.46860910239674</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="28">
@@ -2752,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>63.91655766579878</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2989,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,61 +3034,61 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>23.81301614990497</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>138.8944720691055</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>29.9892228523575</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3226,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,67 +3265,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>170.6554636898985</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,16 +3635,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>175.4407330992326</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3700,19 +3702,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>146.9525391092905</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,13 +3872,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>115.1481656116171</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6806854287134353</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.91642501047011</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,52 +4146,52 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.050116039799</v>
+        <v>173.385681888029</v>
       </c>
       <c r="C2" t="n">
-        <v>214.050116039799</v>
+        <v>119.3326222820192</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9970564337892</v>
+        <v>65.27956267600931</v>
       </c>
       <c r="F2" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
         <v>4.28100232079598</v>
@@ -4331,19 +4333,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>110.2358097604965</v>
+      </c>
+      <c r="O2" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="N2" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="O2" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4373,7 +4375,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>173.385681888029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4410,13 +4412,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>161.0727123199487</v>
@@ -4434,25 +4436,25 @@
         <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>51.89093722176946</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>27.95824356358591</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.7454097505996</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>281.7454097505996</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>281.7454097505996</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
         <v>281.7454097505996</v>
@@ -4607,10 +4609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>486.3105406908639</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>486.3105406908639</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="X6" t="n">
-        <v>486.3105406908639</v>
+        <v>472.7618635207803</v>
       </c>
       <c r="Y6" t="n">
-        <v>278.55024192591</v>
+        <v>472.7618635207803</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4768,7 +4770,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>285.1327311248648</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>285.1327311248648</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7040404982626</v>
+        <v>324.1694235828572</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>391.9193775183306</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>391.9193775183306</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>391.9193775183306</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X9" t="n">
-        <v>391.9193775183306</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y9" t="n">
-        <v>391.9193775183306</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,22 +5144,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
         <v>231.8830517671884</v>
@@ -5321,7 +5323,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>787.9255531013317</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C15" t="n">
-        <v>613.4725238202047</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D15" t="n">
-        <v>464.5381141589534</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>305.3006591534979</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5367,10 +5369,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>787.9255531013317</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>787.9255531013317</v>
+        <v>717.6598068330284</v>
       </c>
       <c r="U15" t="n">
-        <v>787.9255531013317</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="V15" t="n">
-        <v>787.9255531013317</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="W15" t="n">
-        <v>787.9255531013317</v>
+        <v>489.4361885694175</v>
       </c>
       <c r="X15" t="n">
-        <v>787.9255531013317</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y15" t="n">
-        <v>787.9255531013317</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>901.2946886937524</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>43.24439370388544</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5604,7 +5606,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>901.2946886937524</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>901.2946886937524</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>901.2946886937524</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>901.2946886937524</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>901.2946886937524</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>901.2946886937524</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>901.2946886937524</v>
+        <v>217.6974229850125</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.2946886937524</v>
+        <v>217.6974229850125</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5694,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5729,19 +5731,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,25 +5773,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5838,7 +5840,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>946.8678361012239</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>946.8678361012239</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>946.8678361012239</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>718.6442178376129</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>718.6442178376129</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>718.6442178376129</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>718.6442178376129</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5929,7 +5931,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200815</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="C24" t="n">
-        <v>380.2300195200815</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="D24" t="n">
-        <v>317.2494235330527</v>
+        <v>97.53226341566398</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>246.4666730769152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6400,16 +6402,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6440,7 +6442,7 @@
         <v>223.6192102101089</v>
       </c>
       <c r="C29" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>84.59745522340125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6585,7 +6587,7 @@
         <v>243.8349102288568</v>
       </c>
       <c r="Y30" t="n">
-        <v>243.8349102288568</v>
+        <v>36.07461146390284</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>411.6785506544679</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>718.7806050553886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -7017,46 +7019,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>690.5083698110992</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>690.5083698110992</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U36" t="n">
-        <v>462.2847515474883</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V36" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7114,19 +7116,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>742.8341567219593</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>742.8341567219593</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>742.8341567219593</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>742.8341567219593</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
         <v>31.35113235729608</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>742.8341567219593</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>742.8341567219593</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>742.8341567219593</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>512.2574197977942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>284.0338015341832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>284.0338015341832</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7348,16 +7350,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.424473941237</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="C42" t="n">
-        <v>473.9875657500345</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7520,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>674.3285325657323</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="W42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="X42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.6398109613051</v>
+        <v>439.1764243339896</v>
       </c>
     </row>
     <row r="43">
@@ -7585,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.8227978119081</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>111.1159158480613</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
@@ -7991,10 +7993,10 @@
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8304,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9015,13 +9017,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9252,10 +9254,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>374.9551956315293</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>97.47071887126955</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>56.389187656633</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>256.7375800297467</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>66.41960608993695</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.02299200392815</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.14040793732497</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>147.9595530161018</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>85.09427553748026</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>80.1764713530042</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,7 +24344,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,19 +24405,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,10 +24502,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="28">
@@ -24640,19 +24642,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D29" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24734,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>149.9076499797141</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>81.15265472758509</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24877,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,13 +25007,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>6.174740324278389</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,16 +25049,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>221.7057603085621</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25114,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>380.9243455904444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,19 +25201,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>1.027707413939368</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>80.77591565244732</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>395.0123189464189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>119.4884220823224</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,16 +25523,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>24.72399559558903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25588,19 +25590,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T40" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>138.8566050823863</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>25.75595987902526</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,13 +25760,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>85.01656308320455</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>156.9643950266875</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374099.6929757855</v>
+        <v>374099.6929757852</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>374099.6929757855</v>
+        <v>374099.6929757854</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>374099.6929757855</v>
+        <v>374099.6929757854</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>374099.6929757855</v>
+        <v>374099.6929757854</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>374099.6929757852</v>
+        <v>374099.6929757854</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>374099.6929757854</v>
+        <v>374099.6929757855</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>374099.6929757855</v>
+        <v>374099.6929757854</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>240932.9751704318</v>
       </c>
       <c r="F2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="G2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="H2" t="n">
         <v>240932.9751704318</v>
       </c>
       <c r="I2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="J2" t="n">
         <v>240932.9751704319</v>
@@ -26344,16 +26346,16 @@
         <v>240932.9751704318</v>
       </c>
       <c r="M2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="O2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="P2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="P2" t="n">
-        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354071.2011411576</v>
+        <v>354071.2011411577</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26445,13 +26447,13 @@
         <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
         <v>33649.84678425771</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186369.6409872411</v>
+        <v>186369.6409872414</v>
       </c>
       <c r="C6" t="n">
-        <v>173802.3177824583</v>
+        <v>173802.3177824582</v>
       </c>
       <c r="D6" t="n">
-        <v>234378.6399691263</v>
+        <v>234378.6399691265</v>
       </c>
       <c r="E6" t="n">
         <v>192629.4596224125</v>
       </c>
       <c r="F6" t="n">
-        <v>192629.4596224124</v>
+        <v>192629.4596224125</v>
       </c>
       <c r="G6" t="n">
         <v>192629.4596224125</v>
       </c>
       <c r="H6" t="n">
-        <v>192629.4596224124</v>
+        <v>192629.4596224125</v>
       </c>
       <c r="I6" t="n">
         <v>192629.4596224125</v>
@@ -26552,7 +26554,7 @@
         <v>192629.4596224125</v>
       </c>
       <c r="M6" t="n">
-        <v>192629.4596224124</v>
+        <v>192629.4596224125</v>
       </c>
       <c r="N6" t="n">
         <v>192629.4596224125</v>
@@ -26561,7 +26563,7 @@
         <v>192629.4596224125</v>
       </c>
       <c r="P6" t="n">
-        <v>192629.4596224125</v>
+        <v>192629.4596224124</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
         <v>301.1705126107332</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7422101897477</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.9801488458013</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27506,13 +27508,13 @@
         <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27588,19 +27590,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>285.3520213321118</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.5477458235686</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.2737911163624</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>188.4703195251436</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,19 +27706,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>31.67244373433167</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>191.4187548667587</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>5.066549668675236</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27904,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.2128969559303</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>15.93831371378155</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>131.5307158198949</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.05569651810563</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
@@ -34711,10 +34713,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35024,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35735,13 +35737,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35972,10 +35974,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>169.9067907798016</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1598832.203587503</v>
+        <v>1529980.907146066</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5762458.827729663</v>
+        <v>5762458.827729664</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>53.51252900994975</v>
@@ -667,13 +667,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.25778981025229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,44 +825,44 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
+        <v>23.44046883036203</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>204.9103882272899</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>193.4600505471182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>84.4730545048111</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>60.27622829416089</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,70 +1135,70 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>205.4093399017307</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>156.7701852745342</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.57566235103572</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>5.536810092104906</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.7755410381886</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>166.4011004797998</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30.44791647891266</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.97702676147813</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1979,7 +1979,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>84.84103413332343</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>124.1987261892491</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>77.46860910239674</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>34.85384537335718</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,64 +2554,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>82.46119763909351</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>62.52515684565924</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.53524424398009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.62553367015321</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>29.9892228523575</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>182.9086067175423</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3228,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3325,7 +3325,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>19.29350169663055</v>
       </c>
       <c r="T36" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="V38" t="n">
-        <v>208.2638363878125</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>87.68958101214713</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>98.92381696846063</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>115.1481656116171</v>
+        <v>89.29749682216328</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3939,16 +3939,16 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>232.3303155802433</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6806854287134353</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.385681888029</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3326222820192</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>65.27956267600931</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>65.27956267600931</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.385681888029</v>
+        <v>203.9585006715719</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4412,16 +4412,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4433,13 +4433,13 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
         <v>159.9970564337892</v>
@@ -4448,13 +4448,13 @@
         <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="V4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.5465265007123</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C6" t="n">
-        <v>304.5465265007123</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>472.7618635207803</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>472.7618635207803</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.7618635207803</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>470.2141014732327</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>226.7653248291326</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>226.7653248291326</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>324.1694235828572</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>492.3847606029253</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>492.3847606029253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>492.3847606029253</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,19 +5126,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>723.3123098121209</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>515.4608096065881</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>307.7005108416342</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C14" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D14" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>281.5846883638847</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C15" t="n">
-        <v>281.5846883638847</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5360,13 +5360,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
         <v>725.4530095217538</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>717.6598068330284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>489.4361885694175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>489.4361885694175</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>489.4361885694175</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X15" t="n">
-        <v>281.5846883638847</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y15" t="n">
-        <v>281.5846883638847</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
         <v>19.28114311021272</v>
@@ -5475,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>217.6974229850125</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="C18" t="n">
-        <v>43.24439370388544</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="D18" t="n">
-        <v>43.24439370388544</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="E18" t="n">
-        <v>43.24439370388544</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="F18" t="n">
-        <v>43.24439370388544</v>
+        <v>50.79074695381931</v>
       </c>
       <c r="G18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>43.24439370388544</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5627,19 +5627,19 @@
         <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X18" t="n">
-        <v>217.6974229850125</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y18" t="n">
-        <v>217.6974229850125</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
         <v>19.28114311021272</v>
@@ -5694,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>603.4517885018743</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>395.6002882963414</v>
       </c>
     </row>
     <row r="22">
@@ -5931,16 +5931,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246.4666730769152</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C24" t="n">
-        <v>246.4666730769152</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D24" t="n">
-        <v>97.53226341566398</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>246.4666730769152</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y24" t="n">
-        <v>246.4666730769152</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="27">
@@ -6308,46 +6308,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>35.98341002332393</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6402,25 +6402,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>243.8349102288568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>243.8349102288568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07461146390284</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>425.5489231905453</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2567788952347</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>944.5687699584842</v>
       </c>
       <c r="T36" t="n">
-        <v>670.0450503124422</v>
+        <v>944.5687699584842</v>
       </c>
       <c r="U36" t="n">
-        <v>670.0450503124422</v>
+        <v>944.5687699584842</v>
       </c>
       <c r="V36" t="n">
-        <v>434.8929420806995</v>
+        <v>944.5687699584842</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>701.1199933143841</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>493.2684931088513</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>493.2684931088513</v>
       </c>
     </row>
     <row r="37">
@@ -7116,16 +7116,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
         <v>31.35113235729608</v>
@@ -7198,22 +7198,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
         <v>274.7999090013961</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>875.481821154932</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>875.481821154932</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>667.7215223899782</v>
       </c>
     </row>
     <row r="40">
@@ -7353,16 +7353,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H41" t="n">
         <v>243.9530410142718</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>439.1764243339896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>439.1764243339896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>439.1764243339896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>674.3285325657323</v>
+        <v>873.8576637710773</v>
       </c>
       <c r="U42" t="n">
-        <v>674.3285325657323</v>
+        <v>873.8576637710773</v>
       </c>
       <c r="V42" t="n">
-        <v>439.1764243339896</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W42" t="n">
-        <v>439.1764243339896</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X42" t="n">
-        <v>439.1764243339896</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y42" t="n">
-        <v>439.1764243339896</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="43">
@@ -7587,25 +7587,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.2758270930352</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>272.8227978119081</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>272.8227978119081</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.2758270930352</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,7 +9257,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.9551956315293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>170.3657197299391</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>246.1581730688147</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23463,13 +23463,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23494,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>56.389187656633</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>39.28159529750457</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23752,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23791,7 +23791,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>256.7375800297467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>106.895600684298</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>66.41960608993695</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23907,7 +23907,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>147.9595530161018</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>127.4962569716705</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,10 +24290,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>80.1764713530042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24350,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>170.9191398301203</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>257.0136044766737</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>109.1580142581786</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>189.1474515333243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.9076499797141</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24776,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>77.57477008921587</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24879,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,10 +24925,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,19 +24967,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>199.2828334142264</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>221.7057603085621</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>22.86437848593513</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25116,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>152.3896694072073</v>
       </c>
       <c r="T36" t="n">
-        <v>80.77591565244732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25356,10 +25356,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>192.9509344611737</v>
       </c>
       <c r="V38" t="n">
-        <v>119.4884220823224</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>10.49235770196771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>164.0054021487725</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25593,19 +25593,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>266.3490748025469</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>138.8566050823863</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>85.01656308320455</v>
+        <v>110.8672318726583</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25827,16 +25827,16 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>19.01533732759322</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.0341136990839</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>156.9643950266875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374099.6929757852</v>
+        <v>374099.6929757855</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>374099.6929757854</v>
+        <v>374099.6929757855</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>374099.6929757854</v>
+        <v>374099.6929757852</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>374099.6929757854</v>
+        <v>374099.6929757855</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>374099.6929757855</v>
+        <v>374099.6929757854</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516052</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516053</v>
-      </c>
       <c r="E2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="F2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="F2" t="n">
-        <v>240932.9751704319</v>
       </c>
       <c r="G2" t="n">
         <v>240932.9751704319</v>
@@ -26334,19 +26334,19 @@
         <v>240932.9751704318</v>
       </c>
       <c r="I2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="J2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="K2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="L2" t="n">
         <v>240932.9751704319</v>
       </c>
-      <c r="J2" t="n">
-        <v>240932.9751704319</v>
-      </c>
-      <c r="K2" t="n">
-        <v>240932.9751704319</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
@@ -26355,7 +26355,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186369.6409872414</v>
+        <v>186369.6409872412</v>
       </c>
       <c r="C6" t="n">
-        <v>173802.3177824582</v>
+        <v>173802.3177824584</v>
       </c>
       <c r="D6" t="n">
-        <v>234378.6399691265</v>
+        <v>234378.6399691264</v>
       </c>
       <c r="E6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="F6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="G6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="H6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="I6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="J6" t="n">
-        <v>178628.2274821332</v>
+        <v>166410.2168620927</v>
       </c>
       <c r="K6" t="n">
-        <v>144372.5066887799</v>
+        <v>132154.4960687394</v>
       </c>
       <c r="L6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="M6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="N6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="O6" t="n">
-        <v>192629.4596224125</v>
+        <v>180411.449002372</v>
       </c>
       <c r="P6" t="n">
-        <v>192629.4596224124</v>
+        <v>180411.449002372</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>311.7603627610578</v>
@@ -27387,13 +27387,13 @@
         <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>378.9153063463019</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9801488458013</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,16 +27514,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>121.9805791925692</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.5477458235686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>188.4703195251436</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>201.9656575144215</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27669,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,19 +27697,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>73.17202595058984</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>191.4187548667587</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,28 +27855,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>5.066549668675236</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,28 +27897,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>333.5151654886528</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>15.93831371378155</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,19 +27985,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,16 +28028,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="M3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,7 +35737,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37867,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
